--- a/biology/Histoire de la zoologie et de la botanique/Patricia_Louise_Dudley/Patricia_Louise_Dudley.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Patricia_Louise_Dudley/Patricia_Louise_Dudley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patricia Louise Dudley est une zoologiste américaine, née le 22 mai 1929 à Denver et morte le 30 septembre 2004.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est diplômée à l’université du Colorado où elle étudie auprès du spécialiste de la limnologie de Robert William Pennak (1912-2004). Elle obtient son Master of Sciences avec une thèse sur la faune de rivières de montagne.
 Dudley travaille à l’université de Washington où Paul Louis Illg (1914-1998) l’initie à l’étude des crustacés copépodes et notamment au tuniciers dont les différents stades sont étudiés depuis très longtemps. Elle soutient sa thèse, en 1957 : The Development of Notodelphyid Copepods and the Application of Larval Characteristics to the Systematics of some Species from the Northeastern Pacific. Elle travaille à la station biologique de Friday Harbor.
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>David M. Damkaer (2007). Patricia Louise Dudley, 22 May 1929 – 30 September 2004, Monoculus, 48 : 10.</t>
         </is>
